--- a/python_work/20211112/a.xlsx
+++ b/python_work/20211112/a.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,52 @@
         <v>433.3333333333333</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1332</v>
+      </c>
+      <c r="E3" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>8998</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2999.333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
